--- a/ezeeparent/ezeeleaseweb/Workbook1.xlsx
+++ b/ezeeparent/ezeeleaseweb/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21920" yWindow="2340" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -197,14 +199,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -307,6 +311,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -342,6 +356,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -714,8 +758,8 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" thickBot="1">
@@ -747,8 +791,8 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1">
@@ -769,8 +813,8 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" thickBot="1">
@@ -835,8 +879,8 @@
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" thickBot="1">
@@ -901,8 +945,8 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" thickBot="1">
@@ -912,8 +956,8 @@
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" thickBot="1">
@@ -962,26 +1006,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C24">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ezeeparent/ezeeleaseweb/Workbook1.xlsx
+++ b/ezeeparent/ezeeleaseweb/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -199,116 +201,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -718,7 +622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -978,8 +884,8 @@
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" thickBot="1">
@@ -1006,26 +912,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C24">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ezeeparent/ezeeleaseweb/Workbook1.xlsx
+++ b/ezeeparent/ezeeleaseweb/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>EZEE LEASES TO DO</t>
   </si>
@@ -100,13 +100,16 @@
   </si>
   <si>
     <t>Update schedule to have correct date - ie. Start date of new roll rather than update date</t>
+  </si>
+  <si>
+    <t>NOT DOING.  THIS IS COVERED BY VACANT LEASE FUNCTIONALITY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +144,13 @@
       <b/>
       <sz val="12"/>
       <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -183,7 +193,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -193,23 +203,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -622,9 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -800,29 +813,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" thickBot="1">
-      <c r="A17" s="3">
+    <row r="17" spans="1:4" ht="16" thickBot="1">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1">
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" thickBot="1">
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" thickBot="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -833,7 +849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" thickBot="1">
+    <row r="20" spans="1:4" ht="16" thickBot="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -844,7 +860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" thickBot="1">
+    <row r="21" spans="1:4" ht="16" thickBot="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -855,7 +871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" thickBot="1">
+    <row r="22" spans="1:4" ht="16" thickBot="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -866,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" thickBot="1">
+    <row r="23" spans="1:4" ht="16" thickBot="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -877,7 +893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" thickBot="1">
+    <row r="24" spans="1:4" ht="16" thickBot="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -888,7 +904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" thickBot="1">
+    <row r="25" spans="1:4" ht="16" thickBot="1">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -899,7 +915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" thickBot="1">
+    <row r="26" spans="1:4" ht="16" thickBot="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>

--- a/ezeeparent/ezeeleaseweb/Workbook1.xlsx
+++ b/ezeeparent/ezeeleaseweb/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38240" windowHeight="23320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,8 +193,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -214,20 +226,92 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -637,7 +721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -688,8 +774,8 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1">
@@ -721,8 +807,8 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" thickBot="1">
@@ -754,8 +840,8 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1">
@@ -787,8 +873,8 @@
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1">
@@ -911,8 +997,8 @@
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1">
@@ -928,22 +1014,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C24">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$G$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$G$2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$G$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G$2</formula>
     </cfRule>

--- a/ezeeparent/ezeeleaseweb/Workbook1.xlsx
+++ b/ezeeparent/ezeeleaseweb/Workbook1.xlsx
@@ -193,8 +193,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -226,7 +228,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -238,6 +240,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -249,9 +252,50 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -722,7 +766,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -829,8 +873,8 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" thickBot="1">
@@ -862,8 +906,8 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" thickBot="1">
@@ -1008,12 +1052,20 @@
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
+      <c r="C26" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C24">
+  <conditionalFormatting sqref="C3:C9 C14:C24 C11:C12">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>$G$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="13" priority="7">
       <formula>$G$2</formula>
     </cfRule>
@@ -1022,14 +1074,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$G$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$G$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G$2</formula>
     </cfRule>
